--- a/biology/Médecine/George_Newport/George_Newport.xlsx
+++ b/biology/Médecine/George_Newport/George_Newport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Newport (4 février 1803, Canterbury - 7 avril 1854, Londres) est un éminent entomologiste britannique. Il est particulièrement connu pour ses études utilisant le microscope et ses compétences en dissection.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le premier des quatre enfants de William Newport (1777-1843), un charron, et de Sarah Gillham[1]. Il fait ses études à l'Université de Londres et au Collège royal de chirurgie. Il est président de la Société d'entomologie de Londres (1843-1844) et également membre de la Ray Society. Newport reçoit la Médaille royale 1836 et la Royal Society Bakerian Medal 1841. Il est enterré au cimetière de Kensal Green, à Londres.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le premier des quatre enfants de William Newport (1777-1843), un charron, et de Sarah Gillham. Il fait ses études à l'Université de Londres et au Collège royal de chirurgie. Il est président de la Société d'entomologie de Londres (1843-1844) et également membre de la Ray Society. Newport reçoit la Médaille royale 1836 et la Royal Society Bakerian Medal 1841. Il est enterré au cimetière de Kensal Green, à Londres.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'un des anatomistes les plus habiles de son temps, et ses recherches sur la structure des insectes et autres arthropodes sont notables. Ses publications comprennent : 
 Sur la respiration des insectes (1836)
-"Insecta", dans Cyclopædia of Anatomy and Physiology de Todd (1839) [2]
+"Insecta", dans Cyclopædia of Anatomy and Physiology de Todd (1839) 
 Sur l'utilisation des antennes d'insectes (1840)
 Liste des spécimens de Myriopoda au British Museum (1844)
 Monographie de la classe Myriopoda, ordre Chilopoda (1845)
